--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H2">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>7.063660563921667</v>
+        <v>0.226584319899</v>
       </c>
       <c r="R2">
-        <v>63.57294507529501</v>
+        <v>2.039258879091</v>
       </c>
       <c r="S2">
-        <v>0.1961318198829015</v>
+        <v>0.004915000333285823</v>
       </c>
       <c r="T2">
-        <v>0.1961318198829016</v>
+        <v>0.004915000333285824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H3">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>23.42011072569533</v>
+        <v>0.3744101502664444</v>
       </c>
       <c r="R3">
-        <v>210.780996531258</v>
+        <v>3.369691352398</v>
       </c>
       <c r="S3">
-        <v>0.6502901571957</v>
+        <v>0.008121594707724923</v>
       </c>
       <c r="T3">
-        <v>0.6502901571957</v>
+        <v>0.008121594707724923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H4">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>2.116100712737333</v>
+        <v>0.05032115705633333</v>
       </c>
       <c r="R4">
-        <v>19.044906414636</v>
+        <v>0.452890413507</v>
       </c>
       <c r="S4">
-        <v>0.05875631764704384</v>
+        <v>0.001091551718201212</v>
       </c>
       <c r="T4">
-        <v>0.05875631764704385</v>
+        <v>0.001091551718201212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>30.058059</v>
       </c>
       <c r="I5">
-        <v>0.9071594532571753</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J5">
-        <v>0.9071594532571753</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.07135115249733333</v>
+        <v>14.173306618329</v>
       </c>
       <c r="R5">
-        <v>0.642160372476</v>
+        <v>127.559759564961</v>
       </c>
       <c r="S5">
-        <v>0.001981158531529859</v>
+        <v>0.3074431928206725</v>
       </c>
       <c r="T5">
-        <v>0.001981158531529859</v>
+        <v>0.3074431928206726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H6">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>0.6337513782266666</v>
+        <v>23.42011072569533</v>
       </c>
       <c r="R6">
-        <v>5.70376240404</v>
+        <v>210.780996531258</v>
       </c>
       <c r="S6">
-        <v>0.01759694000583231</v>
+        <v>0.5080221441346588</v>
       </c>
       <c r="T6">
-        <v>0.01759694000583231</v>
+        <v>0.5080221441346588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H7">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>2.101251513477333</v>
+        <v>3.147689957833</v>
       </c>
       <c r="R7">
-        <v>18.911263621296</v>
+        <v>28.329209620497</v>
       </c>
       <c r="S7">
-        <v>0.05834401011211739</v>
+        <v>0.06827876350281337</v>
       </c>
       <c r="T7">
-        <v>0.05834401011211739</v>
+        <v>0.06827876350281338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.898936</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H8">
-        <v>2.696808</v>
+        <v>3.030587</v>
       </c>
       <c r="I8">
-        <v>0.08139031435195386</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J8">
-        <v>0.08139031435195386</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,42 +927,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>0.1898564817813334</v>
+        <v>1.429015718697</v>
       </c>
       <c r="R8">
-        <v>1.708708336032</v>
+        <v>12.861141468273</v>
       </c>
       <c r="S8">
-        <v>0.005271614759991288</v>
+        <v>0.03099778809406233</v>
       </c>
       <c r="T8">
-        <v>0.005271614759991289</v>
+        <v>0.03099778809406234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.898936</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H9">
-        <v>2.696808</v>
+        <v>3.030587</v>
       </c>
       <c r="I9">
-        <v>0.08139031435195386</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J9">
-        <v>0.08139031435195386</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007121333333333333</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N9">
-        <v>0.021364</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q9">
-        <v>0.006401622901333333</v>
+        <v>2.361319575021555</v>
       </c>
       <c r="R9">
-        <v>0.05761460611199999</v>
+        <v>21.251876175194</v>
       </c>
       <c r="S9">
-        <v>0.0001777494740128753</v>
+        <v>0.05122104876188523</v>
       </c>
       <c r="T9">
-        <v>0.0001777494740128753</v>
+        <v>0.05122104876188524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,72 +1018,72 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H10">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I10">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J10">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7050016666666666</v>
+        <v>0.314161</v>
       </c>
       <c r="N10">
-        <v>2.115005</v>
+        <v>0.942483</v>
       </c>
       <c r="O10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q10">
-        <v>0.08915803577499999</v>
+        <v>0.3173640808356666</v>
       </c>
       <c r="R10">
-        <v>0.802422321975</v>
+        <v>2.856276727521</v>
       </c>
       <c r="S10">
-        <v>0.002475590050723948</v>
+        <v>0.006884168170928823</v>
       </c>
       <c r="T10">
-        <v>0.002475590050723948</v>
+        <v>0.006884168170928824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.126465</v>
+        <v>0.1476666666666667</v>
       </c>
       <c r="H11">
-        <v>0.379395</v>
+        <v>0.443</v>
       </c>
       <c r="I11">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="J11">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,39 +1113,39 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.337487333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N11">
-        <v>7.012461999999999</v>
+        <v>4.243779</v>
       </c>
       <c r="O11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q11">
-        <v>0.29561033561</v>
+        <v>0.208888233</v>
       </c>
       <c r="R11">
-        <v>2.66049302049</v>
+        <v>1.879994097</v>
       </c>
       <c r="S11">
-        <v>0.008208009512166523</v>
+        <v>0.004531142028151515</v>
       </c>
       <c r="T11">
-        <v>0.008208009512166523</v>
+        <v>0.004531142028151516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.126465</v>
+        <v>0.1476666666666667</v>
       </c>
       <c r="H12">
-        <v>0.379395</v>
+        <v>0.443</v>
       </c>
       <c r="I12">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="J12">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,39 +1175,39 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2112013333333334</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N12">
-        <v>0.6336040000000001</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O12">
-        <v>0.0647695589083904</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P12">
-        <v>0.06476955890839041</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q12">
-        <v>0.02670957662</v>
+        <v>0.3451689628888889</v>
       </c>
       <c r="R12">
-        <v>0.24038618958</v>
+        <v>3.106520666</v>
       </c>
       <c r="S12">
-        <v>0.000741626501355267</v>
+        <v>0.007487303483290584</v>
       </c>
       <c r="T12">
-        <v>0.0007416265013552671</v>
+        <v>0.007487303483290584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1219,46 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.126465</v>
+        <v>0.1476666666666667</v>
       </c>
       <c r="H13">
-        <v>0.379395</v>
+        <v>0.443</v>
       </c>
       <c r="I13">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="J13">
-        <v>0.01145023239087081</v>
+        <v>0.01302474775576687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.007121333333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N13">
-        <v>0.021364</v>
+        <v>0.942483</v>
       </c>
       <c r="O13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q13">
-        <v>0.0009005994199999999</v>
+        <v>0.04639110766666666</v>
       </c>
       <c r="R13">
-        <v>0.008105394779999999</v>
+        <v>0.417519969</v>
       </c>
       <c r="S13">
-        <v>2.500632662507485E-05</v>
+        <v>0.001006302244324769</v>
       </c>
       <c r="T13">
-        <v>2.500632662507484E-05</v>
+        <v>0.001006302244324769</v>
       </c>
     </row>
   </sheetData>
